--- a/Results/original_timeseries.xlsx
+++ b/Results/original_timeseries.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>9.999998092651367</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.73994731903076</v>
+        <v>19.91386222839355</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.88715648651123</v>
+        <v>30.82382011413574</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.72779846191406</v>
+        <v>27.0608024597168</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3629322052002</v>
+        <v>28.42402648925781</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.88477325439453</v>
+        <v>33.38010787963867</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.09504413604736</v>
+        <v>27.02968215942383</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8590726852417</v>
+        <v>25.43332099914551</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.16149044036865</v>
+        <v>19.61019134521484</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.69805526733398</v>
+        <v>23.11505889892578</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.047662734985352</v>
+        <v>22.46598625183105</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.65491008758545</v>
+        <v>23.23980331420898</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.88852405548096</v>
+        <v>24.40401077270508</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.92103385925293</v>
+        <v>17.69940376281738</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.79659271240234</v>
+        <v>23.3298225402832</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.0671272277832</v>
+        <v>22.09136390686035</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.87057495117188</v>
+        <v>17.59386444091797</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.5390796661377</v>
+        <v>18.96489334106445</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.07570648193359</v>
+        <v>20.5773754119873</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.6048469543457</v>
+        <v>14.21890258789062</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.5052604675293</v>
+        <v>16.98683738708496</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.60428237915039</v>
+        <v>23.78763389587402</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.47353744506836</v>
+        <v>19.82280158996582</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>35.48937225341797</v>
+        <v>20.82447242736816</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>43.59607696533203</v>
+        <v>24.42077255249023</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.41330718994141</v>
+        <v>28.72497367858887</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.01176834106445</v>
+        <v>28.14645195007324</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.47355270385742</v>
+        <v>28.87625122070312</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48.39653015136719</v>
+        <v>27.0863151550293</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>49.94337463378906</v>
+        <v>34.93813323974609</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.28622817993164</v>
+        <v>43.42683029174805</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69.10005187988281</v>
+        <v>42.41703796386719</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.62699890136719</v>
+        <v>41.59482192993164</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>63.79313659667969</v>
+        <v>42.41203689575195</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>64.90692901611328</v>
+        <v>34.79825592041016</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.3804931640625</v>
+        <v>32.55380249023438</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.50833892822266</v>
+        <v>30.33015060424805</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>61.65863800048828</v>
+        <v>30.11344528198242</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>65.52265930175781</v>
+        <v>32.74205780029297</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>70.445068359375</v>
+        <v>28.95943069458008</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>72.49600982666016</v>
+        <v>36.10829162597656</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>71.38141632080078</v>
+        <v>35.96073150634766</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>76.97331237792969</v>
+        <v>28.90010452270508</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.13939666748047</v>
+        <v>32.10189819335938</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>73.18728637695312</v>
+        <v>32.9359245300293</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>78.21314239501953</v>
+        <v>33.2005500793457</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>75.83834075927734</v>
+        <v>29.2037181854248</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>80.14871978759766</v>
+        <v>25.41832160949707</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>75.69123840332031</v>
+        <v>20.74356079101562</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>79.080322265625</v>
+        <v>19.39426803588867</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>71.58160400390625</v>
+        <v>25.80113983154297</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>80.61624145507812</v>
+        <v>22.21888542175293</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>89.08286285400391</v>
+        <v>22.84833717346191</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.90590667724609</v>
+        <v>27.33016586303711</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>82.37388610839844</v>
+        <v>23.14101409912109</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81.44223022460938</v>
+        <v>25.3036060333252</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>81.39109039306641</v>
+        <v>25.89423179626465</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.38396453857422</v>
+        <v>25.51727104187012</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72.48351287841797</v>
+        <v>18.49273490905762</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>78.98269653320312</v>
+        <v>18.60515594482422</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>76.10672760009766</v>
+        <v>19.95445823669434</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.33635711669922</v>
+        <v>22.727783203125</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>76.613525390625</v>
+        <v>32.95322799682617</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>80.14121246337891</v>
+        <v>32.87089920043945</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>78.83422088623047</v>
+        <v>34.96236419677734</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>73.57475280761719</v>
+        <v>32.95932769775391</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>74.51702880859375</v>
+        <v>30.68748664855957</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>74.53961181640625</v>
+        <v>26.34326171875</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>73.04024505615234</v>
+        <v>27.66670036315918</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.16011810302734</v>
+        <v>30.46701622009277</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>61.45151519775391</v>
+        <v>26.247802734375</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>65.76642608642578</v>
+        <v>44.46295166015625</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>63.85097122192383</v>
+        <v>34.08254623413086</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>56.45391845703125</v>
+        <v>24.7912425994873</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51.2088737487793</v>
+        <v>15.51529026031494</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.6522216796875</v>
+        <v>13.94917583465576</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.31172180175781</v>
+        <v>17.1263484954834</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>33.84040832519531</v>
+        <v>15.18269920349121</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>45.58850479125977</v>
+        <v>11.57381820678711</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>46.96005630493164</v>
+        <v>6.435885429382324</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>50.13191223144531</v>
+        <v>-3.479883432388306</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>55.45631408691406</v>
+        <v>1.330877542495728</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>61.66569137573242</v>
+        <v>-0.5087764859199524</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>54.2003173828125</v>
+        <v>4.85321569442749</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>49.68404006958008</v>
+        <v>1.356822967529297</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>53.58150863647461</v>
+        <v>3.923659801483154</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62.47532653808594</v>
+        <v>13.64821147918701</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>56.50040435791016</v>
+        <v>15.18494606018066</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>59.24997711181641</v>
+        <v>1.877907037734985</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>60.90696716308594</v>
+        <v>-4.671974182128906</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>57.99363327026367</v>
+        <v>1.591581463813782</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>52.01559829711914</v>
+        <v>-0.6038453578948975</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>52.11992263793945</v>
+        <v>-0.8876668810844421</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>61.66631698608398</v>
+        <v>-0.3221976757049561</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>65.27052307128906</v>
+        <v>-3.530635833740234</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>75.16374969482422</v>
+        <v>-1.598172545433044</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>84.99449920654297</v>
+        <v>3.714737415313721</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.06047058105469</v>
+        <v>-5.116875171661377</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100.2930145263672</v>
+        <v>-8.464884757995605</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>104.9404754638672</v>
+        <v>-12.19529151916504</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>114.0141830444336</v>
+        <v>-11.41897964477539</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>106.4997863769531</v>
+        <v>-7.041654586791992</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>112.8279800415039</v>
+        <v>-6.977646350860596</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>117.3638153076172</v>
+        <v>-5.507919311523438</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>122.1763000488281</v>
+        <v>-15.06228542327881</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>120.516487121582</v>
+        <v>-6.73418140411377</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>117.6141357421875</v>
+        <v>-12.97727680206299</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>116.9053421020508</v>
+        <v>-11.05310153961182</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>116.7856979370117</v>
+        <v>-13.82688617706299</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>124.1779708862305</v>
+        <v>-19.6042537689209</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>129.3625183105469</v>
+        <v>-16.55622291564941</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>130.7501831054688</v>
+        <v>-12.86302947998047</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>130.9973297119141</v>
+        <v>-6.630908012390137</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>130.1281890869141</v>
+        <v>-17.62202262878418</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>129.1474456787109</v>
+        <v>-15.47336673736572</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>124.7285385131836</v>
+        <v>-11.396803855896</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>127.5403747558594</v>
+        <v>-11.82048892974854</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>126.4198608398438</v>
+        <v>-11.03362083435059</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>134.7345123291016</v>
+        <v>-8.437614440917969</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>127.8901596069336</v>
+        <v>-16.32006072998047</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>127.079704284668</v>
+        <v>-18.2762508392334</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>126.9273986816406</v>
+        <v>-21.7982120513916</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>125.8307800292969</v>
+        <v>-25.69913482666016</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>131.0973968505859</v>
+        <v>-25.65680313110352</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>124.0631942749023</v>
+        <v>-21.94367408752441</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>123.094856262207</v>
+        <v>-18.9805793762207</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>130.6495361328125</v>
+        <v>-24.93323516845703</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>127.6450729370117</v>
+        <v>-22.03318405151367</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>121.1650695800781</v>
+        <v>-28.47979545593262</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>116.0846939086914</v>
+        <v>-33.14414215087891</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>109.666130065918</v>
+        <v>-25.95470237731934</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>112.5054092407227</v>
+        <v>-27.36609840393066</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>112.774284362793</v>
+        <v>-23.97485733032227</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>118.7478790283203</v>
+        <v>-12.85607147216797</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>115.0483932495117</v>
+        <v>-16.43733024597168</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>116.0949783325195</v>
+        <v>-25.09719848632812</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>119.201286315918</v>
+        <v>-21.28831100463867</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>109.5089569091797</v>
+        <v>-23.86945343017578</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>106.9927673339844</v>
+        <v>-22.78892135620117</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>99.01811981201172</v>
+        <v>-25.73933792114258</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>102.3914031982422</v>
+        <v>-29.83523178100586</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>97.04499053955078</v>
+        <v>-29.93894958496094</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>98.64238739013672</v>
+        <v>-35.51502990722656</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>92.33078002929688</v>
+        <v>-35.77428817749023</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>90.54829406738281</v>
+        <v>-31.39411926269531</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>92.28079223632812</v>
+        <v>-34.26308059692383</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>94.0203857421875</v>
+        <v>-31.43926239013672</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>91.54328918457031</v>
+        <v>-31.75771713256836</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>96.72428894042969</v>
+        <v>-30.95994567871094</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>95.80223846435547</v>
+        <v>-42.54967498779297</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>102.1279678344727</v>
+        <v>-42.88429641723633</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>107.369499206543</v>
+        <v>-45.65112686157227</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>113.8055877685547</v>
+        <v>-61.45040130615234</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>112.025505065918</v>
+        <v>-60.63109588623047</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>111.5381927490234</v>
+        <v>-60.77022933959961</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>112.0246734619141</v>
+        <v>-50.20233154296875</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>115.3349456787109</v>
+        <v>-48.71043014526367</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>108.3786239624023</v>
+        <v>-52.61563110351562</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>109.6981430053711</v>
+        <v>-52.9410400390625</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>116.6474227905273</v>
+        <v>-49.50150299072266</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>115.1306228637695</v>
+        <v>-46.74733352661133</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>121.2158279418945</v>
+        <v>-38.94379043579102</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>111.6415252685547</v>
+        <v>-33.62987899780273</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>121.9795455932617</v>
+        <v>-31.85469627380371</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>116.0563278198242</v>
+        <v>-21.27180862426758</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>119.7065200805664</v>
+        <v>-22.06704711914062</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>115.1035766601562</v>
+        <v>-20.30913734436035</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>114.1414794921875</v>
+        <v>-23.22026443481445</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>111.4550018310547</v>
+        <v>-26.10542106628418</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>116.696159362793</v>
+        <v>-22.05249214172363</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>113.9085464477539</v>
+        <v>-18.18580627441406</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>120.3043670654297</v>
+        <v>-16.95198440551758</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>112.4135971069336</v>
+        <v>-15.02704620361328</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>112.32177734375</v>
+        <v>-17.1387996673584</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>112.8569488525391</v>
+        <v>-20.6286506652832</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>117.6203918457031</v>
+        <v>-15.88851261138916</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>119.601692199707</v>
+        <v>-13.38923072814941</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>116.2423858642578</v>
+        <v>-12.25032997131348</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>114.3532638549805</v>
+        <v>-11.05761623382568</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>113.9560546875</v>
+        <v>-14.74013519287109</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>101.8030395507812</v>
+        <v>-22.37269592285156</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>94.07125091552734</v>
+        <v>-23.83146095275879</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>108.5677337646484</v>
+        <v>-22.28532409667969</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>114.6841049194336</v>
+        <v>-18.04519271850586</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>110.1788330078125</v>
+        <v>-18.62272262573242</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>109.2093276977539</v>
+        <v>-26.76690864562988</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>116.3303298950195</v>
+        <v>-22.17016983032227</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>116.8037033081055</v>
+        <v>-12.79202747344971</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>114.4634246826172</v>
+        <v>-18.40679359436035</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>118.5710830688477</v>
+        <v>-16.40398788452148</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>114.2245254516602</v>
+        <v>-14.2750358581543</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>116.600456237793</v>
+        <v>-14.74143409729004</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>113.1647109985352</v>
+        <v>-13.15134143829346</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>111.0263137817383</v>
+        <v>-21.15840530395508</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>110.7483215332031</v>
+        <v>-20.75699996948242</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>110.6633911132812</v>
+        <v>-19.28236961364746</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>113.045166015625</v>
+        <v>-22.63558387756348</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>114.7654800415039</v>
+        <v>-11.92094326019287</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>120.4121246337891</v>
+        <v>-16.37992286682129</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>125.0810012817383</v>
+        <v>-13.00581455230713</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>118.7838516235352</v>
+        <v>-15.70174026489258</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>131.967529296875</v>
+        <v>-26.82556343078613</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>131.6959991455078</v>
+        <v>-31.47320175170898</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>127.6522064208984</v>
+        <v>-33.50524520874023</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>120.2215881347656</v>
+        <v>-31.15433311462402</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>124.1328887939453</v>
+        <v>-29.26150703430176</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>124.2335052490234</v>
+        <v>-27.05080223083496</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>125.1208038330078</v>
+        <v>-32.39981460571289</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>131.8173980712891</v>
+        <v>-30.98851203918457</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>133.4351501464844</v>
+        <v>-44.39448547363281</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>130.9026489257812</v>
+        <v>-49.23792266845703</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>125.4609985351562</v>
+        <v>-51.14707183837891</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>121.6226119995117</v>
+        <v>-53.50336456298828</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>132.4188995361328</v>
+        <v>-56.18407440185547</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>142.9040832519531</v>
+        <v>-57.73711776733398</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>145.3822631835938</v>
+        <v>-60.14947128295898</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>145.4401550292969</v>
+        <v>-53.86994934082031</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>152.2818756103516</v>
+        <v>-52.30981826782227</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>157.4549102783203</v>
+        <v>-41.79208755493164</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>151.9207000732422</v>
+        <v>-41.92188262939453</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>145.0201416015625</v>
+        <v>-36.65130996704102</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>134.5970001220703</v>
+        <v>-41.74468994140625</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>133.7149963378906</v>
+        <v>-42.17840957641602</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>135.5554504394531</v>
+        <v>-36.76026916503906</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>129.5400695800781</v>
+        <v>-32.1541748046875</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>119.3534469604492</v>
+        <v>-40.96840286254883</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>122.28662109375</v>
+        <v>-38.7921142578125</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>122.4741744995117</v>
+        <v>-40.00625610351562</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>129.3668518066406</v>
+        <v>-40.50200271606445</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>132.3106231689453</v>
+        <v>-34.11619567871094</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>136.2456970214844</v>
+        <v>-30.60961723327637</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>134.0320281982422</v>
+        <v>-34.38386535644531</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>137.0066528320312</v>
+        <v>-36.28599166870117</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>126.7780685424805</v>
+        <v>-35.70475006103516</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>122.4696426391602</v>
+        <v>-38.14418411254883</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>120.1182708740234</v>
+        <v>-41.48101806640625</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>119.76953125</v>
+        <v>-40.90520095825195</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>121.5963287353516</v>
+        <v>-44.59536743164062</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>126.2770843505859</v>
+        <v>-44.04079437255859</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>118.1851196289062</v>
+        <v>-40.65409088134766</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>121.5143814086914</v>
+        <v>-30.36126899719238</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>118.2710189819336</v>
+        <v>-34.67839050292969</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>117.0995025634766</v>
+        <v>-40.37502288818359</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>116.4258193969727</v>
+        <v>-39.14762496948242</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>102.3934936523438</v>
+        <v>-35.79167938232422</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>101.8961334228516</v>
+        <v>-36.87663650512695</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>105.4669342041016</v>
+        <v>-38.33357620239258</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>110.2256622314453</v>
+        <v>-32.67616271972656</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>113.8967514038086</v>
+        <v>-38.28729629516602</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>118.781135559082</v>
+        <v>-49.16775131225586</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>120.8836059570312</v>
+        <v>-41.78630447387695</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>123.3536376953125</v>
+        <v>-47.37715911865234</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>126.3578872680664</v>
+        <v>-41.60565948486328</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>130.5323638916016</v>
+        <v>-44.9006233215332</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>139.5318145751953</v>
+        <v>-45.80648422241211</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>133.5894165039062</v>
+        <v>-43.20483779907227</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>142.8581390380859</v>
+        <v>-45.60965347290039</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>139.4892425537109</v>
+        <v>-43.30705642700195</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>137.9921264648438</v>
+        <v>-44.91321182250977</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>139.4231109619141</v>
+        <v>-43.59805297851562</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>120.7623519897461</v>
+        <v>-43.42757034301758</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>121.5098114013672</v>
+        <v>-54.7790412902832</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>127.1012191772461</v>
+        <v>-50.1009635925293</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>127.5104064941406</v>
+        <v>-44.22364807128906</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>127.790168762207</v>
+        <v>-43.25236511230469</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>129.0350189208984</v>
+        <v>-44.29793930053711</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>123.1358795166016</v>
+        <v>-40.95627212524414</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>129.5972900390625</v>
+        <v>-41.68244552612305</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>120.7017822265625</v>
+        <v>-40.49519348144531</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>120.5309448242188</v>
+        <v>-40.92877197265625</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>122.840446472168</v>
+        <v>-46.42561721801758</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>121.8849105834961</v>
+        <v>-42.84320449829102</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>120.2983932495117</v>
+        <v>-46.00042343139648</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>117.8511276245117</v>
+        <v>-42.72623062133789</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>117.8483505249023</v>
+        <v>-41.96304702758789</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>115.4748764038086</v>
+        <v>-33.93766784667969</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>118.1530151367188</v>
+        <v>-30.98896026611328</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>120.4320907592773</v>
+        <v>-23.21922874450684</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>126.0802917480469</v>
+        <v>-22.2339916229248</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>126.4143371582031</v>
+        <v>-23.14619064331055</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>136.9135284423828</v>
+        <v>-29.5289306640625</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>144.1908874511719</v>
+        <v>-29.14103698730469</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>142.2583618164062</v>
+        <v>-32.46442031860352</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>145.8736724853516</v>
+        <v>-41.59309387207031</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>140.5760498046875</v>
+        <v>-43.74030685424805</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>140.6880493164062</v>
+        <v>-44.87577819824219</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>132.8148040771484</v>
+        <v>-50.92570114135742</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>136.36669921875</v>
+        <v>-55.11904144287109</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>137.7169036865234</v>
+        <v>-56.26812744140625</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>131.0426940917969</v>
+        <v>-54.03718185424805</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>129.4058227539062</v>
+        <v>-53.2867546081543</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>129.2599639892578</v>
+        <v>-52.50175857543945</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>134.8467254638672</v>
+        <v>-56.10422134399414</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>128.5303497314453</v>
+        <v>-63.65996551513672</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>125.6677856445312</v>
+        <v>-66.76708221435547</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>118.15576171875</v>
+        <v>-68.48500061035156</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>127.0550231933594</v>
+        <v>-79.89230346679688</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>126.4574127197266</v>
+        <v>-86.69472503662109</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>127.7256851196289</v>
+        <v>-76.96075439453125</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>129.5689239501953</v>
+        <v>-80.19119262695312</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>127.8750686645508</v>
+        <v>-89.83209991455078</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>132.3111724853516</v>
+        <v>-90.91206359863281</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>132.9531097412109</v>
+        <v>-99.41133117675781</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>129.1813049316406</v>
+        <v>-91.37252044677734</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>130.7998199462891</v>
+        <v>-87.62722015380859</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>128.4683685302734</v>
+        <v>-87.76753997802734</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>130.8990478515625</v>
+        <v>-94.33428955078125</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>125.9206619262695</v>
+        <v>-96.53974914550781</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>126.7398223876953</v>
+        <v>-88.91400909423828</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>119.9166564941406</v>
+        <v>-89.03360748291016</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>116.8185729980469</v>
+        <v>-84.24030303955078</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>115.3989410400391</v>
+        <v>-74.90479278564453</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>115.7632522583008</v>
+        <v>-76.90871429443359</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>117.7156448364258</v>
+        <v>-76.26619720458984</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>118.7218246459961</v>
+        <v>-82.86857604980469</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>116.899040222168</v>
+        <v>-73.59748840332031</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>111.3672485351562</v>
+        <v>-70.51418304443359</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>105.824462890625</v>
+        <v>-70.11106872558594</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>110.9956665039062</v>
+        <v>-77.4189453125</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>111.1708526611328</v>
+        <v>-82.14997100830078</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>113.4487380981445</v>
+        <v>-76.74606323242188</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>116.8603744506836</v>
+        <v>-75.57057952880859</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>120.4927368164062</v>
+        <v>-71.23966979980469</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>117.5116500854492</v>
+        <v>-77.47019195556641</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>121.8197479248047</v>
+        <v>-78.39069366455078</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>116.0910797119141</v>
+        <v>-81.02413177490234</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>120.0873184204102</v>
+        <v>-76.56233215332031</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>111.7490081787109</v>
+        <v>-78.8743896484375</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>108.1842575073242</v>
+        <v>-73.77864837646484</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>114.8479690551758</v>
+        <v>-68.79265594482422</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>114.3923873901367</v>
+        <v>-60.45025253295898</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>104.6748352050781</v>
+        <v>-59.19475173950195</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>99.88650512695312</v>
+        <v>-55.47010040283203</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>98.88630676269531</v>
+        <v>-45.58904266357422</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>95.34590911865234</v>
+        <v>-37.23406600952148</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>87.19912719726562</v>
+        <v>-34.74382781982422</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>90.02653503417969</v>
+        <v>-34.13639068603516</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>89.29440307617188</v>
+        <v>-41.70317459106445</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>93.41683959960938</v>
+        <v>-41.40454483032227</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>93.99622344970703</v>
+        <v>-39.80430603027344</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>92.50151824951172</v>
+        <v>-47.95804977416992</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>90.62596893310547</v>
+        <v>-49.57253265380859</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>92.05350494384766</v>
+        <v>-53.55548858642578</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>93.53730010986328</v>
+        <v>-54.20233535766602</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>95.21300506591797</v>
+        <v>-56.47544479370117</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>90.80919647216797</v>
+        <v>-55.68837738037109</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>89.2855224609375</v>
+        <v>-53.32235336303711</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>104.0329437255859</v>
+        <v>-54.25492858886719</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>104.6445693969727</v>
+        <v>-44.72051239013672</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>99.65222930908203</v>
+        <v>-46.3732795715332</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>88.21678161621094</v>
+        <v>-49.33131408691406</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>83.84667205810547</v>
+        <v>-51.2554931640625</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>82.95240020751953</v>
+        <v>-50.09805679321289</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>71.45710754394531</v>
+        <v>-43.98250198364258</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>71.60152435302734</v>
+        <v>-55.12639617919922</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>69.23628234863281</v>
+        <v>-58.05999374389648</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>72.50367736816406</v>
+        <v>-66.08876800537109</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>68.10854339599609</v>
+        <v>-74.795166015625</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>65.53411102294922</v>
+        <v>-75.60474395751953</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>67.61803436279297</v>
+        <v>-77.78404998779297</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>65.13386535644531</v>
+        <v>-73.77281188964844</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>62.61412811279297</v>
+        <v>-74.18306732177734</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>65.42490386962891</v>
+        <v>-71.00851440429688</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>59.59709167480469</v>
+        <v>-75.14778137207031</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>61.97661590576172</v>
+        <v>-71.91703796386719</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>74.72814178466797</v>
+        <v>-59.40232467651367</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>77.85957336425781</v>
+        <v>-53.5411262512207</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>89.64793395996094</v>
+        <v>-50.21026992797852</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>98.874755859375</v>
+        <v>-50.14791107177734</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>101.7608642578125</v>
+        <v>-45.43716812133789</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>93.33399200439453</v>
+        <v>-52.16776657104492</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>91.16452026367188</v>
+        <v>-63.33729934692383</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>93.53531646728516</v>
+        <v>-68.49632263183594</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>88.0389404296875</v>
+        <v>-64.24654388427734</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>87.03975677490234</v>
+        <v>-65.29125213623047</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>81.28893280029297</v>
+        <v>-67.51321411132812</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>88.54450225830078</v>
+        <v>-63.16142654418945</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>91.72209930419922</v>
+        <v>-64.43484497070312</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>95.08401489257812</v>
+        <v>-60.83786773681641</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>90.59576416015625</v>
+        <v>-62.25884628295898</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>90.08369445800781</v>
+        <v>-64.91177368164062</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>92.31855773925781</v>
+        <v>-69.68037414550781</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>102.2277069091797</v>
+        <v>-73.39137268066406</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>101.2856292724609</v>
+        <v>-61.98578643798828</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>96.24343872070312</v>
+        <v>-70.71456146240234</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>99.10488128662109</v>
+        <v>-64.96932983398438</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>105.1152114868164</v>
+        <v>-71.75376892089844</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>106.1022109985352</v>
+        <v>-75.61676025390625</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>106.0519485473633</v>
+        <v>-71.98764038085938</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>112.5438537597656</v>
+        <v>-69.91988372802734</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>108.7042007446289</v>
+        <v>-59.44521713256836</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>103.9413375854492</v>
+        <v>-62.71274185180664</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>101.9994659423828</v>
+        <v>-67.63724517822266</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>97.75839233398438</v>
+        <v>-70.49502563476562</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>99.95844268798828</v>
+        <v>-74.67510986328125</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>104.8013687133789</v>
+        <v>-68.69229888916016</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>105.0250244140625</v>
+        <v>-67.40802001953125</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>104.6087036132812</v>
+        <v>-70.77787017822266</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>109.2230529785156</v>
+        <v>-79.58976745605469</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>108.2317657470703</v>
+        <v>-75.99373626708984</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>110.5955581665039</v>
+        <v>-78.92071533203125</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>108.3639602661133</v>
+        <v>-72.88722229003906</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>109.3878631591797</v>
+        <v>-66.31237030029297</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>117.2468566894531</v>
+        <v>-62.70134353637695</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>129.4607238769531</v>
+        <v>-67.20787811279297</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>126.6727523803711</v>
+        <v>-63.83234786987305</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>130.7461242675781</v>
+        <v>-55.79211044311523</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>125.3068466186523</v>
+        <v>-50.64214324951172</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>123.6475601196289</v>
+        <v>-60.54532623291016</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>123.4962692260742</v>
+        <v>-61.0134391784668</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>118.4182205200195</v>
+        <v>-63.87313461303711</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>120.6207656860352</v>
+        <v>-67.25074768066406</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>115.3089141845703</v>
+        <v>-70.13625335693359</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>112.1703414916992</v>
+        <v>-66.51836395263672</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>108.3711090087891</v>
+        <v>-62.36150741577148</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>108.1454162597656</v>
+        <v>-57.19924926757812</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>108.1925201416016</v>
+        <v>-56.8122673034668</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>112.5955429077148</v>
+        <v>-52.90720367431641</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>108.3091430664062</v>
+        <v>-50.93135833740234</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>116.8175506591797</v>
+        <v>-52.25625228881836</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>116.1818161010742</v>
+        <v>-43.7678337097168</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>111.723274230957</v>
+        <v>-39.1519889831543</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>117.8025894165039</v>
+        <v>-47.74756622314453</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>113.1511688232422</v>
+        <v>-41.21396636962891</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>118.0174789428711</v>
+        <v>-38.75443267822266</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>119.04345703125</v>
+        <v>-35.98077392578125</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>114.0229873657227</v>
+        <v>-32.80747222900391</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>116.1481857299805</v>
+        <v>-39.71060180664062</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>120.4624862670898</v>
+        <v>-41.69034957885742</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>120.8226928710938</v>
+        <v>-37.33215713500977</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>121.6164245605469</v>
+        <v>-37.36956405639648</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>126.9053344726562</v>
+        <v>-29.72179222106934</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>130.2167053222656</v>
+        <v>-22.17120170593262</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>138.2330780029297</v>
+        <v>-18.0231990814209</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>139.9402008056641</v>
+        <v>-12.04829788208008</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>139.4973602294922</v>
+        <v>-6.85844612121582</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>135.5551605224609</v>
+        <v>-9.730915069580078</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>139.4358673095703</v>
+        <v>-9.43580436706543</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>136.8448333740234</v>
+        <v>-21.64017868041992</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>139.6958923339844</v>
+        <v>-18.53011512756348</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>131.2807922363281</v>
+        <v>-15.12277412414551</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>131.2548522949219</v>
+        <v>-19.01244163513184</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>123.3701553344727</v>
+        <v>-23.47845649719238</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>111.8468780517578</v>
+        <v>-19.68597984313965</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>113.2989807128906</v>
+        <v>-15.94221305847168</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>114.1178359985352</v>
+        <v>-17.88419342041016</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>112.9349594116211</v>
+        <v>-23.86554908752441</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>105.8547668457031</v>
+        <v>-17.40192222595215</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>97.81662750244141</v>
+        <v>-20.40280723571777</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>102.9093399047852</v>
+        <v>-15.14621925354004</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>107.983283996582</v>
+        <v>-15.82984066009521</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>113.2618713378906</v>
+        <v>-18.3067569732666</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>113.7287750244141</v>
+        <v>-7.10422420501709</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>107.864860534668</v>
+        <v>-8.233346939086914</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>99.15821838378906</v>
+        <v>-11.98227024078369</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>111.8811645507812</v>
+        <v>-11.64661502838135</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>114.3346481323242</v>
+        <v>-18.3617115020752</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>112.4901275634766</v>
+        <v>-20.56424331665039</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>118.9016647338867</v>
+        <v>-20.4008731842041</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>115.9024505615234</v>
+        <v>-33.69637298583984</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>112.8598403930664</v>
+        <v>-36.2574348449707</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>113.0120544433594</v>
+        <v>-36.98850250244141</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>116.5521469116211</v>
+        <v>-38.44121551513672</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>117.8055114746094</v>
+        <v>-40.74191665649414</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>122.7409362792969</v>
+        <v>-45.5848503112793</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>117.96240234375</v>
+        <v>-49.9805908203125</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>120.539176940918</v>
+        <v>-51.24624252319336</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>123.5498275756836</v>
+        <v>-42.93279266357422</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>121.2284164428711</v>
+        <v>-47.53671646118164</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>124.2781448364258</v>
+        <v>-47.79317474365234</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>127.9078826904297</v>
+        <v>-58.50071716308594</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>134.9852752685547</v>
+        <v>-62.91429901123047</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>138.4897308349609</v>
+        <v>-58.01862335205078</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>133.0893249511719</v>
+        <v>-64.76092529296875</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>125.5670471191406</v>
+        <v>-58.53728866577148</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>120.7421646118164</v>
+        <v>-59.25671005249023</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>119.0061111450195</v>
+        <v>-56.13216018676758</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>116.0929565429688</v>
+        <v>-66.90312194824219</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>126.7485046386719</v>
+        <v>-62.54083633422852</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>131.6599273681641</v>
+        <v>-59.57123947143555</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>131.3545379638672</v>
+        <v>-63.03983306884766</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>137.4957275390625</v>
+        <v>-65.99797821044922</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>134.0599212646484</v>
+        <v>-65.42350769042969</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>138.8231201171875</v>
+        <v>-62.83058166503906</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>139.3536987304688</v>
+        <v>-58.40130996704102</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>129.2516479492188</v>
+        <v>-56.81406784057617</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>129.630859375</v>
+        <v>-46.79523086547852</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>134.4180908203125</v>
+        <v>-60.77115631103516</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>141.0213928222656</v>
+        <v>-60.49287796020508</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>137.492919921875</v>
+        <v>-56.23529434204102</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>142.2555694580078</v>
+        <v>-55.40067672729492</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>144.8902893066406</v>
+        <v>-51.74606704711914</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>146.8071594238281</v>
+        <v>-58.86743927001953</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>148.0504302978516</v>
+        <v>-51.97780609130859</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>142.9489593505859</v>
+        <v>-59.35489273071289</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>146.2469482421875</v>
+        <v>-59.58778381347656</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>144.3707275390625</v>
+        <v>-61.27191162109375</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>146.7565155029297</v>
+        <v>-63.73922348022461</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>145.9728851318359</v>
+        <v>-63.90478515625</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>149.0295562744141</v>
+        <v>-62.9400634765625</v>
       </c>
     </row>
   </sheetData>
